--- a/Translator/Resources/多语言翻译模板_数据正常.xlsx
+++ b/Translator/Resources/多语言翻译模板_数据正常.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandaeye/Desktop/多语言翻译记录/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandaeye/Documents/SupportFramwork/Translator/Translator/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD299E-6E93-7D4F-8484-E27C87093607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E268F4A3-8A4D-B849-A899-3D42ED87761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1240" windowWidth="29940" windowHeight="18600" xr2:uid="{0312256C-62B0-1042-B5A4-654301F35B74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,44 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>key4</t>
-  </si>
-  <si>
-    <t>key5</t>
-  </si>
-  <si>
-    <t>key6</t>
-  </si>
-  <si>
-    <t>key7</t>
-  </si>
-  <si>
     <t>key8</t>
   </si>
   <si>
@@ -227,24 +189,6 @@
     <t>key10</t>
   </si>
   <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>value3</t>
-  </si>
-  <si>
-    <t>value4</t>
-  </si>
-  <si>
-    <t>value5</t>
-  </si>
-  <si>
-    <t>value6</t>
-  </si>
-  <si>
-    <t>value7</t>
-  </si>
-  <si>
     <t>value8</t>
   </si>
   <si>
@@ -254,24 +198,6 @@
     <t>value10</t>
   </si>
   <si>
-    <t>日语2</t>
-  </si>
-  <si>
-    <t>日语3</t>
-  </si>
-  <si>
-    <t>日语4</t>
-  </si>
-  <si>
-    <t>日语5</t>
-  </si>
-  <si>
-    <t>日语6</t>
-  </si>
-  <si>
-    <t>日语7</t>
-  </si>
-  <si>
     <t>日语8</t>
   </si>
   <si>
@@ -281,24 +207,6 @@
     <t>日语10</t>
   </si>
   <si>
-    <t>德语2</t>
-  </si>
-  <si>
-    <t>德语3</t>
-  </si>
-  <si>
-    <t>德语4</t>
-  </si>
-  <si>
-    <t>德语5</t>
-  </si>
-  <si>
-    <t>德语6</t>
-  </si>
-  <si>
-    <t>德语7</t>
-  </si>
-  <si>
     <t>德语8</t>
   </si>
   <si>
@@ -308,24 +216,6 @@
     <t>德语10</t>
   </si>
   <si>
-    <t>法语2</t>
-  </si>
-  <si>
-    <t>法语3</t>
-  </si>
-  <si>
-    <t>法语4</t>
-  </si>
-  <si>
-    <t>法语5</t>
-  </si>
-  <si>
-    <t>法语6</t>
-  </si>
-  <si>
-    <t>法语7</t>
-  </si>
-  <si>
     <t>法语8</t>
   </si>
   <si>
@@ -335,28 +225,6 @@
     <t>法语10</t>
   </si>
   <si>
-    <t>中文繁体1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文繁体2</t>
-  </si>
-  <si>
-    <t>中文繁体3</t>
-  </si>
-  <si>
-    <t>中文繁体4</t>
-  </si>
-  <si>
-    <t>中文繁体5</t>
-  </si>
-  <si>
-    <t>中文繁体6</t>
-  </si>
-  <si>
-    <t>中文繁体7</t>
-  </si>
-  <si>
     <t>中文繁体8</t>
   </si>
   <si>
@@ -366,32 +234,6 @@
     <t>中文繁体10</t>
   </si>
   <si>
-    <t>俄语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意大利语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄语2</t>
-  </si>
-  <si>
-    <t>俄语3</t>
-  </si>
-  <si>
-    <t>俄语4</t>
-  </si>
-  <si>
-    <t>俄语5</t>
-  </si>
-  <si>
-    <t>俄语6</t>
-  </si>
-  <si>
-    <t>俄语7</t>
-  </si>
-  <si>
     <t>俄语8</t>
   </si>
   <si>
@@ -401,24 +243,6 @@
     <t>俄语10</t>
   </si>
   <si>
-    <t>意大利语2</t>
-  </si>
-  <si>
-    <t>意大利语3</t>
-  </si>
-  <si>
-    <t>意大利语4</t>
-  </si>
-  <si>
-    <t>意大利语5</t>
-  </si>
-  <si>
-    <t>意大利语6</t>
-  </si>
-  <si>
-    <t>意大利语7</t>
-  </si>
-  <si>
     <t>意大利语8</t>
   </si>
   <si>
@@ -426,28 +250,6 @@
   </si>
   <si>
     <t>意大利语10</t>
-  </si>
-  <si>
-    <t>中文1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文2</t>
-  </si>
-  <si>
-    <t>中文3</t>
-  </si>
-  <si>
-    <t>中文4</t>
-  </si>
-  <si>
-    <t>中文5</t>
-  </si>
-  <si>
-    <t>中文6</t>
-  </si>
-  <si>
-    <t>中文7</t>
   </si>
   <si>
     <t>中文8</t>
@@ -870,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70FD50-EB6A-2444-935F-AB6AAC4A9E79}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -940,757 +742,533 @@
     </row>
     <row r="3" spans="1:11" ht="20">
       <c r="A3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20">
       <c r="A4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20">
       <c r="A5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="20">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="20">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
